--- a/output/fit_clients/fit_round_313.xlsx
+++ b/output/fit_clients/fit_round_313.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1671235989.624196</v>
+        <v>2195012740.467072</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1099080415615883</v>
+        <v>0.08308141577536868</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03828973287165256</v>
+        <v>0.03027571217421096</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>835617946.2222676</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2513411697.879304</v>
+        <v>1614260154.119335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1710763241201761</v>
+        <v>0.1462925227106503</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03260039485586665</v>
+        <v>0.03946398814476319</v>
       </c>
       <c r="H3" t="b">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>7</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1256705968.508538</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4357072253.141356</v>
+        <v>4006466404.031476</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1630211643258433</v>
+        <v>0.1442648611926104</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03552004348781032</v>
+        <v>0.03696810769345587</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>113</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2178536166.059542</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -598,22 +570,16 @@
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2865347102.116982</v>
+        <v>3750105523.617533</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1096906111962331</v>
+        <v>0.07068534895453545</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0345825859518825</v>
+        <v>0.04403710292953912</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>116</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1432673629.84388</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2109082168.173347</v>
+        <v>2559154340.045583</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09242956550276046</v>
+        <v>0.1287617445475893</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0471405039401841</v>
+        <v>0.05128844620487505</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>59</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1054541101.878138</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3145716392.176776</v>
+        <v>2039515353.773305</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07415560295808662</v>
+        <v>0.1012222059991964</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03938906891539991</v>
+        <v>0.04743058175955605</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>98</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1572858146.946286</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3129118229.758612</v>
+        <v>2519316289.622038</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2104735822660083</v>
+        <v>0.1557671883220348</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02709521706236538</v>
+        <v>0.02157186196921677</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>99</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1564559185.598706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1894237501.625821</v>
+        <v>2293054409.086173</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1580309081746371</v>
+        <v>0.172691371532899</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03105553263593717</v>
+        <v>0.02763565935018002</v>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>947118792.1051134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4256792739.107383</v>
+        <v>3954830812.587008</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1337708177815373</v>
+        <v>0.1491090504813365</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04028100995524998</v>
+        <v>0.04103490497932935</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>131</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2128396411.305857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2871022620.433557</v>
+        <v>3967876765.761148</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1732516419833633</v>
+        <v>0.135480438751106</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03649227190024384</v>
+        <v>0.0458976517175391</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>129</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1435511244.174326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3123737258.341012</v>
+        <v>3097981961.52635</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1720234790716446</v>
+        <v>0.1279159606205894</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05092627871058387</v>
+        <v>0.03741721875670548</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>107</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1561868658.53262</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4655750860.285625</v>
+        <v>3769902895.572172</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07769773838120338</v>
+        <v>0.07660355935160371</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02559683965245769</v>
+        <v>0.01982970248118932</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>105</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2327875451.763751</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2904974866.901469</v>
+        <v>2362763520.593144</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1325876602691065</v>
+        <v>0.1335261797239781</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02801725404465358</v>
+        <v>0.02815245424900305</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>101</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1452487474.774162</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1363205834.148438</v>
+        <v>1168727991.063027</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07622534733068266</v>
+        <v>0.08054016865454749</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04450879861063143</v>
+        <v>0.04237442843534668</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>681602971.5692573</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2771946471.112605</v>
+        <v>2014728904.634039</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0922952244566785</v>
+        <v>0.09127021247527546</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0343854301199587</v>
+        <v>0.04299338503272448</v>
       </c>
       <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="n">
-        <v>60</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1385973242.084654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3358944663.126834</v>
+        <v>5174880701.495851</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1627149345955076</v>
+        <v>0.1379648165756627</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04268049480523959</v>
+        <v>0.0479204614062636</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>91</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1679472397.807173</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3155986227.062756</v>
+        <v>3060032127.864314</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1561543781289382</v>
+        <v>0.1420055764569751</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0337353096375794</v>
+        <v>0.03289357479002789</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>102</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1577993132.461789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1342830647.288023</v>
+        <v>1000123828.987259</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1554315138602322</v>
+        <v>0.1386018616781653</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02141043783975363</v>
+        <v>0.01821818551553269</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>671415436.3186671</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1715895622.146379</v>
+        <v>1700646546.421328</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1297273341475158</v>
+        <v>0.0980285029555836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0278978762352483</v>
+        <v>0.01946493258383068</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>857947867.695508</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2077104372.963696</v>
+        <v>1915487168.787559</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09496388226574652</v>
+        <v>0.06573436676736857</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02894089362860877</v>
+        <v>0.04410180993953035</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>27</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1038552215.034987</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3960418662.168874</v>
+        <v>3581540998.917619</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1371476762787467</v>
+        <v>0.1368785198837279</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05041224368947893</v>
+        <v>0.04168137110258852</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>87</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1980209335.108128</v>
       </c>
     </row>
     <row r="23">
@@ -1210,22 +1074,16 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1498197670.732406</v>
+        <v>1407758420.179446</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1267490030251865</v>
+        <v>0.1363839046111517</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03435240083683024</v>
+        <v>0.04915197849592948</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>749098821.6177435</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2924181039.089189</v>
+        <v>2841861702.741026</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1205267150625699</v>
+        <v>0.09169741617925842</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02775533209642971</v>
+        <v>0.02279181414155236</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>91</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1462090559.871599</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1322758618.760871</v>
+        <v>1392790639.136372</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1025869884483334</v>
+        <v>0.120081908755752</v>
       </c>
       <c r="G25" t="n">
-        <v>0.03000303622020183</v>
+        <v>0.02413557673960337</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>661379299.1009042</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1262550850.505589</v>
+        <v>1127223101.603503</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08343890708440882</v>
+        <v>0.09122855321687702</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03196432070866304</v>
+        <v>0.03331137348051479</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>631275461.5686066</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>2940387583.618323</v>
+        <v>4490093551.69558</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1076706164038704</v>
+        <v>0.1283656465994994</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0211789827126365</v>
+        <v>0.01859346488676732</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>78</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1470193854.622581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3465402189.387383</v>
+        <v>3250572658.931252</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1134197368319713</v>
+        <v>0.1071058565584048</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03412757727584457</v>
+        <v>0.05024187823545358</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>100</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1732701146.312753</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4317251440.024832</v>
+        <v>5354625671.525726</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1235945198973407</v>
+        <v>0.1448893741134946</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03718984060122295</v>
+        <v>0.04005755796139405</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>138</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2158625714.886016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2097967318.088408</v>
+        <v>1561818764.705697</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09999943867286069</v>
+        <v>0.09023898307214766</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02438942862169367</v>
+        <v>0.02516107645523813</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1048983707.637853</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1115607695.763444</v>
+        <v>1426436960.704754</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07947928745260356</v>
+        <v>0.09296670017908579</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0458494570058323</v>
+        <v>0.04187064165409422</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>557803819.2128208</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1783951268.901364</v>
+        <v>1267630003.468746</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1025475849873818</v>
+        <v>0.07293776891254997</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03219861012015481</v>
+        <v>0.03119359014668988</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>891975761.6268525</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>3120433569.030416</v>
+        <v>2426533041.21242</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2073715854241054</v>
+        <v>0.1819405843041672</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0461007751440479</v>
+        <v>0.05100181408594044</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>92</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1560216769.881054</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1031851392.516546</v>
+        <v>1171466649.118097</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09474957257517655</v>
+        <v>0.08616201685410185</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02105093567418365</v>
+        <v>0.02830773203238693</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>515925728.8721493</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>846977027.2338924</v>
+        <v>1314423716.65144</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07946792841250995</v>
+        <v>0.1031518326277389</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03746275356321494</v>
+        <v>0.03777544530621953</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>423488565.7677109</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2305016275.7543</v>
+        <v>3110206052.024565</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1594601843825221</v>
+        <v>0.1543157362181943</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02360358684522249</v>
+        <v>0.02457864502526592</v>
       </c>
       <c r="H36" t="b">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>79</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1152508175.490626</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1981743949.694345</v>
+        <v>2610909703.40018</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09224849488572293</v>
+        <v>0.0774920839650938</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03708788070785257</v>
+        <v>0.04152838184756262</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>81</v>
-      </c>
-      <c r="J37" t="n">
-        <v>990871999.6062731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1720,22 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1619893024.578797</v>
+        <v>2194592194.501744</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09194963660608238</v>
+        <v>0.1016908923982941</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02514829278109255</v>
+        <v>0.03173642618731668</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>809946544.6136607</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1501532384.486224</v>
+        <v>1455605190.359324</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1876982440652646</v>
+        <v>0.1761156094255633</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02656436913177742</v>
+        <v>0.02448790414086046</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>750766262.4794444</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1308614006.535503</v>
+        <v>1607218893.575323</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1058105427812162</v>
+        <v>0.1013290682010798</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05652537862535295</v>
+        <v>0.03666372500877942</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>654307017.3610113</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2014931031.088484</v>
+        <v>2235176379.063383</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1111700448302607</v>
+        <v>0.1585229264382354</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03628830072890511</v>
+        <v>0.02899140129971553</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>78</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1007465588.291815</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3729002336.17158</v>
+        <v>3556879879.756954</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1037080447489584</v>
+        <v>0.1026110208289336</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03491853019471709</v>
+        <v>0.03683858973489406</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>104</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1864501178.702694</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1987861827.476992</v>
+        <v>3023150763.048522</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1485190697597037</v>
+        <v>0.1810351492379029</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02534053033084402</v>
+        <v>0.01717969844710713</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>113</v>
-      </c>
-      <c r="J43" t="n">
-        <v>993931013.9108194</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1646229972.064807</v>
+        <v>1909078934.899365</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09601018507912971</v>
+        <v>0.06624909451747973</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02469986893830282</v>
+        <v>0.03208937577638928</v>
       </c>
       <c r="H44" t="b">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>823115021.7831483</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1976254475.222519</v>
+        <v>2328060764.05005</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1881102303823403</v>
+        <v>0.1924386595055721</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05632672272626265</v>
+        <v>0.05383529973306278</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>988127226.1220819</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4925340235.47668</v>
+        <v>5681780293.8663</v>
       </c>
       <c r="F46" t="n">
-        <v>0.135956779900889</v>
+        <v>0.1381580030717157</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04431410102114326</v>
+        <v>0.05975194087407815</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>111</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2462670140.264093</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3486908220.920702</v>
+        <v>4173748016.125396</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1979740867483986</v>
+        <v>0.1440677058287055</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05209686475923111</v>
+        <v>0.05387759147544657</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>84</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1743454080.510002</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3410023665.993329</v>
+        <v>3336902501.28318</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1089534128974914</v>
+        <v>0.0766212932271705</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02840550255028446</v>
+        <v>0.03744231743078875</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>106</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1705011901.661221</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1437579271.278642</v>
+        <v>1480048573.639956</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1233380818691057</v>
+        <v>0.1235183457823152</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03266228121448882</v>
+        <v>0.03513142290785262</v>
       </c>
       <c r="H49" t="b">
-        <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>718789677.3755732</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3001185544.922341</v>
+        <v>4008821204.480043</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1652557513708932</v>
+        <v>0.1326303135539894</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04815447979182568</v>
+        <v>0.04566397889042562</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>106</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1500592832.198955</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1098314989.549248</v>
+        <v>1541979953.95579</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1230378091871711</v>
+        <v>0.1558523303858593</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05156971948887919</v>
+        <v>0.05183322076464555</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>549157562.8013052</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5158366348.600766</v>
+        <v>3371669995.469452</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1084619274265841</v>
+        <v>0.1335365836354664</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04898116843581186</v>
+        <v>0.05508016833222747</v>
       </c>
       <c r="H52" t="b">
         <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>128</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2579183162.605259</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3141696552.758423</v>
+        <v>3006860625.221056</v>
       </c>
       <c r="F53" t="n">
-        <v>0.163443021121355</v>
+        <v>0.1877168889055341</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03541651581750637</v>
+        <v>0.02445661626235573</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>91</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1570848299.061967</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4545470285.852473</v>
+        <v>4917360037.988863</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1184585070847074</v>
+        <v>0.129334730741765</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04175088835486643</v>
+        <v>0.05112018808429396</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>101</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2272735249.81753</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3530809953.880251</v>
+        <v>3459456395.622224</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1465291660607577</v>
+        <v>0.177365580937491</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02358570815648933</v>
+        <v>0.02308988942049597</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>91</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1765404931.128079</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1843272061.976</v>
+        <v>1782844040.661106</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1028010214363993</v>
+        <v>0.1048427183986419</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04867321689814941</v>
+        <v>0.05094738494333566</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>921636022.4019073</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3940563777.50439</v>
+        <v>3280302637.239228</v>
       </c>
       <c r="F57" t="n">
-        <v>0.127983287273284</v>
+        <v>0.1479453168176237</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02542138558405219</v>
+        <v>0.01782241675152924</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>99</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1970281972.133069</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1597094311.401086</v>
+        <v>1691233540.087363</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1722481697218707</v>
+        <v>0.1433525309047921</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03820348730799925</v>
+        <v>0.02638481520371531</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>798547177.9807342</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4749500719.841205</v>
+        <v>3322351015.540109</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1190956305368644</v>
+        <v>0.123719547599733</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04889630696120344</v>
+        <v>0.04433646208855764</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>85</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2374750299.723279</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3776568885.117742</v>
+        <v>3317688174.482285</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1922276193997085</v>
+        <v>0.1999120818432292</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02504265240343684</v>
+        <v>0.02132785789820515</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>99</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1888284594.371045</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3075705942.275449</v>
+        <v>2141676225.326946</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1521721597558232</v>
+        <v>0.1774565732719534</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02952971938360934</v>
+        <v>0.03091159380994875</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>107</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1537852944.472631</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1762175352.00559</v>
+        <v>2040593441.968122</v>
       </c>
       <c r="F62" t="n">
-        <v>0.161167127954284</v>
+        <v>0.1371744151629417</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03469230045936566</v>
+        <v>0.0413211837594469</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>881087698.3943279</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4660810120.612844</v>
+        <v>4944824293.916269</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06478631577724732</v>
+        <v>0.07319469911439369</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04730633614501811</v>
+        <v>0.03574416786058606</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>91</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2330405093.199145</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3766699674.597488</v>
+        <v>3568043356.330114</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1809148886197549</v>
+        <v>0.1460616148919468</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02898937768433769</v>
+        <v>0.03214082372383191</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>97</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1883349856.744724</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5319107029.339672</v>
+        <v>4711312461.323888</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1083647042512461</v>
+        <v>0.1162219347592241</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02754638010208483</v>
+        <v>0.02422189057077681</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>113</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2659553454.53975</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5249613270.641088</v>
+        <v>5068554608.24726</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1511292008642141</v>
+        <v>0.1383274925803333</v>
       </c>
       <c r="G66" t="n">
-        <v>0.042878799787509</v>
+        <v>0.04891381333310157</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>91</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2624806675.893239</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2783742786.998594</v>
+        <v>2632235772.980205</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08384471369455254</v>
+        <v>0.08627745866732148</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03864530465591259</v>
+        <v>0.03384621710393729</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>100</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1391871430.098641</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2740,22 +2334,16 @@
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5617260401.245319</v>
+        <v>5447710034.686056</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1201925041636186</v>
+        <v>0.1533049975307748</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03627003838802688</v>
+        <v>0.04748652956670592</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>103</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2808630294.422402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1995873575.159524</v>
+        <v>2101493525.588379</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1128147253258327</v>
+        <v>0.1222846666080926</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05077544308167398</v>
+        <v>0.05976630810388117</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>997936792.0053492</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2784112853.0538</v>
+        <v>2526942026.410907</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08450692814379226</v>
+        <v>0.08610181626076525</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03512993040819898</v>
+        <v>0.04169523693909319</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>89</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1392056389.429908</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3472705793.827652</v>
+        <v>5156157335.918199</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1232583687704723</v>
+        <v>0.1527650168486091</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02430240818597392</v>
+        <v>0.02288448376957678</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>114</v>
-      </c>
-      <c r="J71" t="n">
-        <v>1736352888.603257</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1845795404.101018</v>
+        <v>1980586341.976244</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09231210318531589</v>
+        <v>0.09294374321437938</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05230752227634482</v>
+        <v>0.04429410186867408</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>922897673.2664309</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2194704952.396765</v>
+        <v>2388900756.234617</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08139138400300915</v>
+        <v>0.1112123067632983</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0408660681263719</v>
+        <v>0.03775817450449765</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>119</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1097352545.934521</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2460937261.624056</v>
+        <v>3932266052.491441</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1505493847185337</v>
+        <v>0.1377733684023884</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03330401160292316</v>
+        <v>0.02659427213557347</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>106</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1230468742.782864</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2229786646.64611</v>
+        <v>2079606211.163295</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1602308299177881</v>
+        <v>0.1399562178974962</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02462786556141935</v>
+        <v>0.03155576039044443</v>
       </c>
       <c r="H75" t="b">
-        <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1114893265.938524</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
@@ -3012,22 +2558,16 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4921975346.512444</v>
+        <v>5055180682.044908</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1009845994389711</v>
+        <v>0.1143504520791656</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03105448117207631</v>
+        <v>0.02183863426036248</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>76</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2460987696.60604</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1642248806.041159</v>
+        <v>1685820669.424234</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1613101808493365</v>
+        <v>0.1864430327451203</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02653604662296896</v>
+        <v>0.03056299698404896</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>821124411.6782221</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3585617558.012593</v>
+        <v>3481295421.341129</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1210612556645823</v>
+        <v>0.1138934437962972</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05544849993956838</v>
+        <v>0.05119776291495134</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>108</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1792808774.372354</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1847642694.468717</v>
+        <v>1706033198.153374</v>
       </c>
       <c r="F79" t="n">
-        <v>0.129853967305683</v>
+        <v>0.1433007369576034</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0278080725888788</v>
+        <v>0.02872342811466404</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>923821442.2230426</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4325077010.567533</v>
+        <v>4508889829.135808</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1066753727653516</v>
+        <v>0.06901257004318954</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02946310698806748</v>
+        <v>0.03278013424473667</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>65</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2162538520.918185</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5152694985.672057</v>
+        <v>4548333865.391611</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1091962073445829</v>
+        <v>0.1066029486447115</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0298727984361581</v>
+        <v>0.02305505259496435</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>71</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2576347498.855353</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3547530795.047578</v>
+        <v>5630561573.046736</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1809172757372747</v>
+        <v>0.1409913142337596</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02682057982648528</v>
+        <v>0.02546449682845441</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>110</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1773765462.533201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1565283742.57109</v>
+        <v>1578896924.444955</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1451643504055478</v>
+        <v>0.1539128860534443</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04078219438125096</v>
+        <v>0.03362473635203548</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>782641802.521517</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2119266995.281083</v>
+        <v>1778752024.81774</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1000385283762326</v>
+        <v>0.1063395595140963</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04284667765100355</v>
+        <v>0.03531224363823731</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>4</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1059633485.228028</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3622430324.501261</v>
+        <v>2587378538.037048</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1707749161287677</v>
+        <v>0.1415533187757638</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04628062024320662</v>
+        <v>0.04467758736011718</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>118</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1811215291.112298</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2262118685.837581</v>
+        <v>1744637390.26996</v>
       </c>
       <c r="F86" t="n">
-        <v>0.14421830511877</v>
+        <v>0.126827110454322</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0222976596078016</v>
+        <v>0.02539702961265964</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>43</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1131059407.007411</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1462744018.855246</v>
+        <v>1453689918.461933</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1794355522705594</v>
+        <v>0.1333299019968564</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03998218869477993</v>
+        <v>0.04171372750391197</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>731372132.3505183</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2968844280.841958</v>
+        <v>3115668257.241831</v>
       </c>
       <c r="F88" t="n">
-        <v>0.10941900176545</v>
+        <v>0.1583831294225988</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02853033279973162</v>
+        <v>0.0255762190615171</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>124</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1484422167.790746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3416044260.331701</v>
+        <v>3116511930.886475</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1571162646712564</v>
+        <v>0.1036689197846441</v>
       </c>
       <c r="G89" t="n">
-        <v>0.02903072233810527</v>
+        <v>0.03078933157146205</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>106</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1708022137.78355</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1661669989.464983</v>
+        <v>2124496429.782815</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1196686524918565</v>
+        <v>0.0945352079354919</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04362070929258887</v>
+        <v>0.03978375706080551</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>830835003.0386575</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1611973005.389436</v>
+        <v>1973914920.222738</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1809920299940374</v>
+        <v>0.1187711538503844</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04185526984889502</v>
+        <v>0.06010868712593916</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>805986526.709258</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2748541341.986338</v>
+        <v>2245195874.394356</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08566902839167051</v>
+        <v>0.0935450214850201</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03518000581598769</v>
+        <v>0.03333283612584596</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>82</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1374270673.730715</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3567338362.035636</v>
+        <v>3192599808.871695</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1249793519482772</v>
+        <v>0.1324650046178308</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05371862003025642</v>
+        <v>0.04613861511763213</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>93</v>
-      </c>
-      <c r="J93" t="n">
-        <v>1783669209.632091</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2108635072.633594</v>
+        <v>2042970859.618231</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1146618299767067</v>
+        <v>0.1322899301772349</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03700698338329503</v>
+        <v>0.03376722718939052</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
         <v>1</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1054317548.866336</v>
       </c>
     </row>
     <row r="95">
@@ -3658,22 +3090,16 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2037800311.737108</v>
+        <v>2837149074.426299</v>
       </c>
       <c r="F95" t="n">
-        <v>0.133563412199945</v>
+        <v>0.08471268353970576</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03861384749932867</v>
+        <v>0.03916853556222585</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>75</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1018900225.60727</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1946679582.321105</v>
+        <v>1512803240.639739</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1281045679657212</v>
+        <v>0.1277701595218616</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04227427613543066</v>
+        <v>0.03598252494806404</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>973339783.844032</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4699313049.207763</v>
+        <v>4409692503.207311</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1562999846683903</v>
+        <v>0.1574189773735024</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01832772668017265</v>
+        <v>0.02797641174044547</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>100</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2349656637.232248</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2435498363.87079</v>
+        <v>3005043215.178828</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1089069535268306</v>
+        <v>0.08213043052910469</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02544486265263401</v>
+        <v>0.02015359581855167</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>82</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1217749128.353484</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2290930172.658244</v>
+        <v>2447497879.997537</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09656034608590186</v>
+        <v>0.1321779924108438</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03077455454233104</v>
+        <v>0.02560159009048606</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>100</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1145465020.918186</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>2898146069.36204</v>
+        <v>3850494699.317554</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1666433108296853</v>
+        <v>0.1101046760512816</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02682394927636328</v>
+        <v>0.02381167988327604</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>95</v>
-      </c>
-      <c r="J100" t="n">
-        <v>1449073017.400115</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2474234676.16512</v>
+        <v>2486078075.024196</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1855083966072525</v>
+        <v>0.2057877634570866</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04748689288681748</v>
+        <v>0.03767818694293134</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>125</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1237117357.66707</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_313.xlsx
+++ b/output/fit_clients/fit_round_313.xlsx
@@ -480,19 +480,19 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2195012740.467072</v>
+        <v>2500880804.946801</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08308141577536868</v>
+        <v>0.07795727804811632</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03027571217421096</v>
+        <v>0.03351549983149278</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -508,22 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1614260154.119335</v>
+        <v>1915533415.120452</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1462925227106503</v>
+        <v>0.1377289050708969</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03946398814476319</v>
+        <v>0.04668030616348835</v>
       </c>
       <c r="H3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4006466404.031476</v>
+        <v>4424200774.76225</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1442648611926104</v>
+        <v>0.1345356811731624</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03696810769345587</v>
+        <v>0.0289696608431759</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3750105523.617533</v>
+        <v>4110590003.863434</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07068534895453545</v>
+        <v>0.1003714046524457</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04403710292953912</v>
+        <v>0.03169464095082331</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2559154340.045583</v>
+        <v>2365738318.61385</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1287617445475893</v>
+        <v>0.09335550639451937</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05128844620487505</v>
+        <v>0.04960344135032605</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,22 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2039515353.773305</v>
+        <v>3115768824.580881</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1012222059991964</v>
+        <v>0.06606583577494078</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04743058175955605</v>
+        <v>0.04625453951018173</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2519316289.622038</v>
+        <v>3783160708.947494</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1557671883220348</v>
+        <v>0.1856809347467104</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02157186196921677</v>
+        <v>0.03359008698750735</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,22 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2293054409.086173</v>
+        <v>1771669499.841516</v>
       </c>
       <c r="F9" t="n">
-        <v>0.172691371532899</v>
+        <v>0.1780026366015214</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02763565935018002</v>
+        <v>0.03087772902497216</v>
       </c>
       <c r="H9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -710,16 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3954830812.587008</v>
+        <v>4220051214.203768</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1491090504813365</v>
+        <v>0.1496230229551476</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04103490497932935</v>
+        <v>0.05354072419748169</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3967876765.761148</v>
+        <v>2737067669.749888</v>
       </c>
       <c r="F11" t="n">
-        <v>0.135480438751106</v>
+        <v>0.180595337285436</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0458976517175391</v>
+        <v>0.03952629347646212</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3097981961.52635</v>
+        <v>3105347407.659837</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1279159606205894</v>
+        <v>0.1543510708745393</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03741721875670548</v>
+        <v>0.05333006333248519</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,19 +788,19 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3769902895.572172</v>
+        <v>4890490607.750363</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07660355935160371</v>
+        <v>0.06863086790087401</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01982970248118932</v>
+        <v>0.02424283354708226</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2362763520.593144</v>
+        <v>2866301773.69263</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1335261797239781</v>
+        <v>0.162119246018764</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02815245424900305</v>
+        <v>0.03626903720066195</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1168727991.063027</v>
+        <v>1707002587.172115</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08054016865454749</v>
+        <v>0.07008669633513566</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04237442843534668</v>
+        <v>0.03644131324646908</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2014728904.634039</v>
+        <v>1830709861.926007</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09127021247527546</v>
+        <v>0.07909786549808867</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04299338503272448</v>
+        <v>0.0494216907900481</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5174880701.495851</v>
+        <v>5094476032.491461</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1379648165756627</v>
+        <v>0.137938242697462</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0479204614062636</v>
+        <v>0.03955404663887889</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -934,13 +934,13 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3060032127.864314</v>
+        <v>2532103874.846063</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1420055764569751</v>
+        <v>0.1735766430551621</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03289357479002789</v>
+        <v>0.03298090176568898</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1000123828.987259</v>
+        <v>1161899687.537228</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1386018616781653</v>
+        <v>0.1425040125329706</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01821818551553269</v>
+        <v>0.02270965020320697</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1700646546.421328</v>
+        <v>2311752658.530526</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0980285029555836</v>
+        <v>0.1319306395384897</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01946493258383068</v>
+        <v>0.02835353342740454</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1915487168.787559</v>
+        <v>1925437869.703211</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06573436676736857</v>
+        <v>0.08063092004720968</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04410180993953035</v>
+        <v>0.0360693706178709</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3581540998.917619</v>
+        <v>3731941367.298333</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1368785198837279</v>
+        <v>0.1322464090821225</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04168137110258852</v>
+        <v>0.04845949722178776</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1407758420.179446</v>
+        <v>1367930367.841183</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1363839046111517</v>
+        <v>0.1765514038108899</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04915197849592948</v>
+        <v>0.04378793857129008</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1102,16 +1102,16 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2841861702.741026</v>
+        <v>3539561464.527361</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09169741617925842</v>
+        <v>0.1126199434062894</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02279181414155236</v>
+        <v>0.02649111838718334</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1392790639.136372</v>
+        <v>1001542136.433178</v>
       </c>
       <c r="F25" t="n">
-        <v>0.120081908755752</v>
+        <v>0.1207222718163105</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02413557673960337</v>
+        <v>0.02756930680436047</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1127223101.603503</v>
+        <v>904926839.0465645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09122855321687702</v>
+        <v>0.08284921270671679</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03331137348051479</v>
+        <v>0.02967035473760087</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4490093551.69558</v>
+        <v>3526546409.937392</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1283656465994994</v>
+        <v>0.1374216817819354</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01859346488676732</v>
+        <v>0.02628325756742179</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,19 +1208,19 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3250572658.931252</v>
+        <v>2966873292.722972</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1071058565584048</v>
+        <v>0.1341515294243034</v>
       </c>
       <c r="G28" t="n">
-        <v>0.05024187823545358</v>
+        <v>0.03087411602207927</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,13 +1242,13 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5354625671.525726</v>
+        <v>4869579869.512251</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1448893741134946</v>
+        <v>0.09212789391386417</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04005755796139405</v>
+        <v>0.04592247277660167</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1561818764.705697</v>
+        <v>2153612479.326765</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09023898307214766</v>
+        <v>0.09872131640212263</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02516107645523813</v>
+        <v>0.02733024155670645</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1426436960.704754</v>
+        <v>934921080.5681175</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09296670017908579</v>
+        <v>0.08879336523876002</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04187064165409422</v>
+        <v>0.04469626433503438</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,13 +1326,13 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1267630003.468746</v>
+        <v>1423901863.124444</v>
       </c>
       <c r="F32" t="n">
-        <v>0.07293776891254997</v>
+        <v>0.1112543887782427</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03119359014668988</v>
+        <v>0.02487317189243121</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2426533041.21242</v>
+        <v>2175276460.513748</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1819405843041672</v>
+        <v>0.1910626816814724</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05100181408594044</v>
+        <v>0.03681402204329754</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1171466649.118097</v>
+        <v>1379066911.886877</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08616201685410185</v>
+        <v>0.09953974376640405</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02830773203238693</v>
+        <v>0.02692763802238847</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1314423716.65144</v>
+        <v>1014376797.083455</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1031518326277389</v>
+        <v>0.08331220785667018</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03777544530621953</v>
+        <v>0.04414222723401532</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3110206052.024565</v>
+        <v>2803977313.288863</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1543157362181943</v>
+        <v>0.157309951733718</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02457864502526592</v>
+        <v>0.0178553352315607</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2610909703.40018</v>
+        <v>2306466510.190169</v>
       </c>
       <c r="F37" t="n">
-        <v>0.0774920839650938</v>
+        <v>0.07448798453277525</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04152838184756262</v>
+        <v>0.03221370093134391</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1494,13 +1494,13 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2194592194.501744</v>
+        <v>1376096330.567363</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1016908923982941</v>
+        <v>0.08476137479339066</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03173642618731668</v>
+        <v>0.03916187644623902</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1455605190.359324</v>
+        <v>1842625084.786617</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1761156094255633</v>
+        <v>0.1253726435956984</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02448790414086046</v>
+        <v>0.03209541308332597</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1607218893.575323</v>
+        <v>1689878628.795216</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1013290682010798</v>
+        <v>0.1538866490066415</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03666372500877942</v>
+        <v>0.04066902823269135</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2235176379.063383</v>
+        <v>2627010658.527085</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1585229264382354</v>
+        <v>0.1368413358306076</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02899140129971553</v>
+        <v>0.0332725079154861</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3556879879.756954</v>
+        <v>3219281506.665334</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1026110208289336</v>
+        <v>0.1031839899786378</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03683858973489406</v>
+        <v>0.0450352778654096</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3023150763.048522</v>
+        <v>2930605463.73637</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1810351492379029</v>
+        <v>0.1654006416061155</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01717969844710713</v>
+        <v>0.01728075224625352</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,22 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1909078934.899365</v>
+        <v>1887151556.76448</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06624909451747973</v>
+        <v>0.09511559265728813</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03208937577638928</v>
+        <v>0.03386283341064985</v>
       </c>
       <c r="H44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2328060764.05005</v>
+        <v>1703145950.754841</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1924386595055721</v>
+        <v>0.1298181516399012</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05383529973306278</v>
+        <v>0.05405917831573545</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5681780293.8663</v>
+        <v>5474395895.196899</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1381580030717157</v>
+        <v>0.1153520618299139</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05975194087407815</v>
+        <v>0.0534762107824193</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1746,16 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4173748016.125396</v>
+        <v>4157807089.308432</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1440677058287055</v>
+        <v>0.1606266929443531</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05387759147544657</v>
+        <v>0.05645467925731408</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3336902501.28318</v>
+        <v>3157038180.536962</v>
       </c>
       <c r="F48" t="n">
-        <v>0.0766212932271705</v>
+        <v>0.07183387976063839</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03744231743078875</v>
+        <v>0.03711289126059542</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,22 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1480048573.639956</v>
+        <v>1300076581.617336</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1235183457823152</v>
+        <v>0.1592129694850727</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03513142290785262</v>
+        <v>0.03110074555606234</v>
       </c>
       <c r="H49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4008821204.480043</v>
+        <v>2812607416.58997</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1326303135539894</v>
+        <v>0.1517564448724724</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04566397889042562</v>
+        <v>0.03344039498329245</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1541979953.95579</v>
+        <v>1217706870.324545</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1558523303858593</v>
+        <v>0.1305314804700266</v>
       </c>
       <c r="G51" t="n">
-        <v>0.05183322076464555</v>
+        <v>0.03347862133489309</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3371669995.469452</v>
+        <v>5248646377.434233</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1335365836354664</v>
+        <v>0.1283125978397675</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05508016833222747</v>
+        <v>0.04308364564636892</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3006860625.221056</v>
+        <v>2585210005.988718</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1877168889055341</v>
+        <v>0.1310002202692938</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02445661626235573</v>
+        <v>0.03236100778028096</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4917360037.988863</v>
+        <v>4021295214.814912</v>
       </c>
       <c r="F54" t="n">
-        <v>0.129334730741765</v>
+        <v>0.1486661531232451</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05112018808429396</v>
+        <v>0.03212303041723825</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3459456395.622224</v>
+        <v>3053836549.692558</v>
       </c>
       <c r="F55" t="n">
-        <v>0.177365580937491</v>
+        <v>0.1412751720698522</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02308988942049597</v>
+        <v>0.03191768533134043</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1782844040.661106</v>
+        <v>1278071964.815042</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1048427183986419</v>
+        <v>0.1148832197929874</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05094738494333566</v>
+        <v>0.03856346498157839</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3280302637.239228</v>
+        <v>3603781799.252323</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1479453168176237</v>
+        <v>0.1328890617566884</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01782241675152924</v>
+        <v>0.01898354186703336</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1691233540.087363</v>
+        <v>1193460132.730078</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1433525309047921</v>
+        <v>0.1946284351301987</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02638481520371531</v>
+        <v>0.02771703264299866</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3322351015.540109</v>
+        <v>4834401993.798567</v>
       </c>
       <c r="F59" t="n">
-        <v>0.123719547599733</v>
+        <v>0.1286000048804913</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04433646208855764</v>
+        <v>0.04290136187482578</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3317688174.482285</v>
+        <v>2496715255.389549</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1999120818432292</v>
+        <v>0.1998661767870356</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02132785789820515</v>
+        <v>0.02896394300467383</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2141676225.326946</v>
+        <v>2639553175.098188</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1774565732719534</v>
+        <v>0.1738031571973894</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03091159380994875</v>
+        <v>0.02456257223451704</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>2040593441.968122</v>
+        <v>1650830933.578651</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1371744151629417</v>
+        <v>0.140892387020548</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0413211837594469</v>
+        <v>0.03657135405562316</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4944824293.916269</v>
+        <v>5491877039.797166</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07319469911439369</v>
+        <v>0.1028482938445511</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03574416786058606</v>
+        <v>0.0442722427989064</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3568043356.330114</v>
+        <v>4741752681.650131</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1460616148919468</v>
+        <v>0.1851464075419948</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03214082372383191</v>
+        <v>0.02429454752977892</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4711312461.323888</v>
+        <v>5328148041.584229</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1162219347592241</v>
+        <v>0.1369350157493891</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02422189057077681</v>
+        <v>0.02502510233003184</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5068554608.24726</v>
+        <v>3880859265.701026</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1383274925803333</v>
+        <v>0.12243183054192</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04891381333310157</v>
+        <v>0.04058546632538548</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2632235772.980205</v>
+        <v>2375758757.093588</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08627745866732148</v>
+        <v>0.0879198973433982</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03384621710393729</v>
+        <v>0.03833320496104922</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5447710034.686056</v>
+        <v>4366850013.506774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1533049975307748</v>
+        <v>0.1164411800485082</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04748652956670592</v>
+        <v>0.0354136397883227</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2101493525.588379</v>
+        <v>1948376407.118803</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1222846666080926</v>
+        <v>0.1302385094084348</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05976630810388117</v>
+        <v>0.04703061177238957</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2526942026.410907</v>
+        <v>2838668542.657191</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08610181626076525</v>
+        <v>0.067397774085585</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04169523693909319</v>
+        <v>0.04028069298639509</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5156157335.918199</v>
+        <v>5464020081.658946</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1527650168486091</v>
+        <v>0.1413800467824479</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02288448376957678</v>
+        <v>0.03287039532187461</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1980586341.976244</v>
+        <v>1454667523.946815</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09294374321437938</v>
+        <v>0.0790443698849478</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04429410186867408</v>
+        <v>0.03852464313819362</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,22 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2388900756.234617</v>
+        <v>2340960807.347282</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1112123067632983</v>
+        <v>0.09875349852262527</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03775817450449765</v>
+        <v>0.0484596440197738</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2502,13 +2502,13 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3932266052.491441</v>
+        <v>2946194420.771398</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1377733684023884</v>
+        <v>0.1432111846713165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02659427213557347</v>
+        <v>0.02958091208634826</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,22 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2079606211.163295</v>
+        <v>1681102323.554225</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1399562178974962</v>
+        <v>0.1058210805483624</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03155576039044443</v>
+        <v>0.02700517825444775</v>
       </c>
       <c r="H75" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5055180682.044908</v>
+        <v>5068462842.95136</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1143504520791656</v>
+        <v>0.1236087327041652</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02183863426036248</v>
+        <v>0.02547116526697216</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1685820669.424234</v>
+        <v>2259179735.132079</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1864430327451203</v>
+        <v>0.1386510124318702</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03056299698404896</v>
+        <v>0.01979329431401401</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3481295421.341129</v>
+        <v>2988592175.938211</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1138934437962972</v>
+        <v>0.1212648414239149</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05119776291495134</v>
+        <v>0.036499374729627</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1706033198.153374</v>
+        <v>1193134564.126915</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1433007369576034</v>
+        <v>0.1636839247441988</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02872342811466404</v>
+        <v>0.03511656151277661</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4508889829.135808</v>
+        <v>4447802619.633899</v>
       </c>
       <c r="F80" t="n">
-        <v>0.06901257004318954</v>
+        <v>0.08554789028001103</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03278013424473667</v>
+        <v>0.0365753490026887</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2698,13 +2698,13 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4548333865.391611</v>
+        <v>3984412352.821329</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1066029486447115</v>
+        <v>0.1335793588174515</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02305505259496435</v>
+        <v>0.02551765962097028</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5630561573.046736</v>
+        <v>3852351772.226072</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1409913142337596</v>
+        <v>0.2146500826370974</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02546449682845441</v>
+        <v>0.02555843418761889</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1578896924.444955</v>
+        <v>1873483967.799341</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1539128860534443</v>
+        <v>0.1211050373928678</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03362473635203548</v>
+        <v>0.02813752410121179</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1778752024.81774</v>
+        <v>1963069723.424216</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1063395595140963</v>
+        <v>0.1044186101908787</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03531224363823731</v>
+        <v>0.0504826442928455</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2587378538.037048</v>
+        <v>2569742099.296776</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1415533187757638</v>
+        <v>0.1528054265724209</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04467758736011718</v>
+        <v>0.03569268878042425</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1744637390.26996</v>
+        <v>2432292105.397089</v>
       </c>
       <c r="F86" t="n">
-        <v>0.126827110454322</v>
+        <v>0.1426384546867516</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02539702961265964</v>
+        <v>0.02236474645861682</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1453689918.461933</v>
+        <v>997088758.4220177</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1333299019968564</v>
+        <v>0.1865621815792858</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04171372750391197</v>
+        <v>0.03547021735392922</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3115668257.241831</v>
+        <v>2542835149.096069</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1583831294225988</v>
+        <v>0.1682007877979806</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0255762190615171</v>
+        <v>0.02773130880371433</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3116511930.886475</v>
+        <v>3174086135.651456</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1036689197846441</v>
+        <v>0.0977873736679489</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03078933157146205</v>
+        <v>0.03262404977236748</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2124496429.782815</v>
+        <v>1355663990.764162</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0945352079354919</v>
+        <v>0.1334123958415091</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03978375706080551</v>
+        <v>0.05075977486738937</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1973914920.222738</v>
+        <v>1295867941.238389</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1187711538503844</v>
+        <v>0.122783427398795</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06010868712593916</v>
+        <v>0.05113442446695986</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2245195874.394356</v>
+        <v>2115851350.716469</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0935450214850201</v>
+        <v>0.07044006383749887</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03333283612584596</v>
+        <v>0.04031941022914659</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3192599808.871695</v>
+        <v>4813345188.444317</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1324650046178308</v>
+        <v>0.1000406129234277</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04613861511763213</v>
+        <v>0.05224520539759522</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2042970859.618231</v>
+        <v>2228202940.20717</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1322899301772349</v>
+        <v>0.1123347554212459</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03376722718939052</v>
+        <v>0.04029212040221874</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2837149074.426299</v>
+        <v>2635255028.169163</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08471268353970576</v>
+        <v>0.1380447176758377</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03916853556222585</v>
+        <v>0.03268913223654334</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3118,16 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1512803240.639739</v>
+        <v>2367682059.854461</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1277701595218616</v>
+        <v>0.1308914267923373</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03598252494806404</v>
+        <v>0.03971168029125407</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4409692503.207311</v>
+        <v>3650810705.873648</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1574189773735024</v>
+        <v>0.1403232452555836</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02797641174044547</v>
+        <v>0.02904790413292675</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3005043215.178828</v>
+        <v>3187572315.091984</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08213043052910469</v>
+        <v>0.126132268444522</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02015359581855167</v>
+        <v>0.03147190755953895</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2447497879.997537</v>
+        <v>2176781886.177001</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1321779924108438</v>
+        <v>0.102918414822919</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02560159009048606</v>
+        <v>0.02149884109341026</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3230,13 +3230,13 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3850494699.317554</v>
+        <v>4737227207.533211</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1101046760512816</v>
+        <v>0.1654352430939566</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02381167988327604</v>
+        <v>0.02629130011987351</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2486078075.024196</v>
+        <v>2391647118.149152</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2057877634570866</v>
+        <v>0.1766353655333268</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03767818694293134</v>
+        <v>0.04290741138505669</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_313.xlsx
+++ b/output/fit_clients/fit_round_313.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2500880804.946801</v>
+        <v>2404703131.612761</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07795727804811632</v>
+        <v>0.1101551907372593</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03351549983149278</v>
+        <v>0.04214780142248424</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1915533415.120452</v>
+        <v>2569581563.878316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1377289050708969</v>
+        <v>0.153777478842826</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04668030616348835</v>
+        <v>0.04896562603401173</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,23 +565,30 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4424200774.76225</v>
+        <v>3274402373.255805</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1345356811731624</v>
+        <v>0.1116741911459889</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0289696608431759</v>
+        <v>0.0324390177441467</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>164</v>
+      </c>
+      <c r="J4" t="n">
+        <v>311</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4110590003.863434</v>
+        <v>3280879007.517868</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1003714046524457</v>
+        <v>0.1042520419133821</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03169464095082331</v>
+        <v>0.0365163272865039</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>125</v>
+      </c>
+      <c r="J5" t="n">
+        <v>307</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2365738318.61385</v>
+        <v>2508337593.799012</v>
       </c>
       <c r="F6" t="n">
-        <v>0.09335550639451937</v>
+        <v>0.1471383394644048</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04960344135032605</v>
+        <v>0.03802753661648706</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -626,17 +676,24 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>3115768824.580881</v>
+        <v>2019774605.326326</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06606583577494078</v>
+        <v>0.06233438240500587</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04625453951018173</v>
+        <v>0.04468407517837659</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3783160708.947494</v>
+        <v>2572141517.090377</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1856809347467104</v>
+        <v>0.1733505950858996</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03359008698750735</v>
+        <v>0.0303610895887634</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>84</v>
+      </c>
+      <c r="J8" t="n">
+        <v>309</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1771669499.841516</v>
+        <v>1909758194.614882</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1780026366015214</v>
+        <v>0.1198145462318414</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03087772902497216</v>
+        <v>0.02697106381886143</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,23 +775,30 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4220051214.203768</v>
+        <v>4726017592.909233</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1496230229551476</v>
+        <v>0.1755456702077366</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05354072419748169</v>
+        <v>0.03435749205420896</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
       </c>
+      <c r="I10" t="n">
+        <v>274</v>
+      </c>
+      <c r="J10" t="n">
+        <v>313</v>
+      </c>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -738,16 +816,25 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2737067669.749888</v>
+        <v>3347283789.793581</v>
       </c>
       <c r="F11" t="n">
-        <v>0.180595337285436</v>
+        <v>0.1322522686241788</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03952629347646212</v>
+        <v>0.03815244531273853</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>125</v>
+      </c>
+      <c r="J11" t="n">
+        <v>312</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60.91407130791899</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +853,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3105347407.659837</v>
+        <v>2945119929.051725</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1543510708745393</v>
+        <v>0.1525784361379696</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05333006333248519</v>
+        <v>0.04548535051698747</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,22 +882,31 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4890490607.750363</v>
+        <v>4085809586.709474</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06863086790087401</v>
+        <v>0.08934080480058436</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02424283354708226</v>
+        <v>0.02789975700391158</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>162</v>
+      </c>
+      <c r="J13" t="n">
+        <v>312</v>
+      </c>
+      <c r="K13" t="n">
+        <v>75.23760829440856</v>
       </c>
     </row>
     <row r="14">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2866301773.69263</v>
+        <v>2518260464.376326</v>
       </c>
       <c r="F14" t="n">
-        <v>0.162119246018764</v>
+        <v>0.1432657381073452</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03626903720066195</v>
+        <v>0.04291783210975919</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>65</v>
+      </c>
+      <c r="J14" t="n">
+        <v>310</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1707002587.172115</v>
+        <v>1766165919.567569</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07008669633513566</v>
+        <v>0.07685639359682357</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03644131324646908</v>
+        <v>0.0457144453948046</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1830709861.926007</v>
+        <v>2269773098.125662</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07909786549808867</v>
+        <v>0.07658712834883677</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0494216907900481</v>
+        <v>0.03526484421709655</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1024,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5094476032.491461</v>
+        <v>4000948417.283138</v>
       </c>
       <c r="F17" t="n">
-        <v>0.137938242697462</v>
+        <v>0.1632403732610439</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03955404663887889</v>
+        <v>0.03914665202738109</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>147</v>
+      </c>
+      <c r="J17" t="n">
+        <v>313</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2532103874.846063</v>
+        <v>3110207858.640995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1735766430551621</v>
+        <v>0.1647999460372203</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03298090176568898</v>
+        <v>0.02605186462007054</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>77</v>
+      </c>
+      <c r="J18" t="n">
+        <v>309</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1161899687.537228</v>
+        <v>1002319284.767304</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1425040125329706</v>
+        <v>0.1491417973454207</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02270965020320697</v>
+        <v>0.01725725995670003</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2311752658.530526</v>
+        <v>2505402315.996718</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1319306395384897</v>
+        <v>0.100457269119836</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02835353342740454</v>
+        <v>0.02622793555258077</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1164,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1925437869.703211</v>
+        <v>2684698101.053526</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08063092004720968</v>
+        <v>0.09034624499571411</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0360693706178709</v>
+        <v>0.03837013608885322</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3731941367.298333</v>
+        <v>2692436424.253429</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1322464090821225</v>
+        <v>0.1114185359532082</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04845949722178776</v>
+        <v>0.04787527551813066</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>84</v>
+      </c>
+      <c r="J22" t="n">
+        <v>309</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1234,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1367930367.841183</v>
+        <v>1241962857.747888</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1765514038108899</v>
+        <v>0.1730153067975412</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04378793857129008</v>
+        <v>0.04238250863957475</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,22 +1269,31 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3539561464.527361</v>
+        <v>3437463984.058716</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1126199434062894</v>
+        <v>0.1341475855316491</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02649111838718334</v>
+        <v>0.03531491727399146</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>93</v>
+      </c>
+      <c r="J24" t="n">
+        <v>312</v>
+      </c>
+      <c r="K24" t="n">
+        <v>54.32358952366025</v>
       </c>
     </row>
     <row r="25">
@@ -1130,17 +1312,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1001542136.433178</v>
+        <v>1400785329.356558</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1207222718163105</v>
+        <v>0.1150026833543318</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02756930680436047</v>
+        <v>0.01886322424602738</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1347,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>904926839.0465645</v>
+        <v>1283300513.251167</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08284921270671679</v>
+        <v>0.1010702083895112</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02967035473760087</v>
+        <v>0.02725020109718016</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1376,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3526546409.937392</v>
+        <v>3259302051.68348</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1374216817819354</v>
+        <v>0.1414250877943526</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02628325756742179</v>
+        <v>0.01784359160326994</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>130</v>
+      </c>
+      <c r="J27" t="n">
+        <v>312</v>
+      </c>
+      <c r="K27" t="n">
+        <v>46.97630386005751</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1413,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2966873292.722972</v>
+        <v>2734341982.6862</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1341515294243034</v>
+        <v>0.1194525641111021</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03087411602207927</v>
+        <v>0.045038983613593</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>66</v>
+      </c>
+      <c r="J28" t="n">
+        <v>309</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1448,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4869579869.512251</v>
+        <v>5270724311.942598</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09212789391386417</v>
+        <v>0.1362980271805763</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04592247277660167</v>
+        <v>0.04639048290678554</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>292</v>
+      </c>
+      <c r="J29" t="n">
+        <v>312</v>
+      </c>
+      <c r="K29" t="n">
+        <v>76.17309660683615</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1491,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2153612479.326765</v>
+        <v>1529230921.249166</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09872131640212263</v>
+        <v>0.1048641528709348</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02733024155670645</v>
+        <v>0.02963138407441377</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1520,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>934921080.5681175</v>
+        <v>1206126869.545194</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08879336523876002</v>
+        <v>0.0724340978119746</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04469626433503438</v>
+        <v>0.04611058118403352</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1326,17 +1561,24 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1423901863.124444</v>
+        <v>1841209108.48468</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1112543887782427</v>
+        <v>0.08045845443690061</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02487317189243121</v>
+        <v>0.0352440872842958</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1596,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2175276460.513748</v>
+        <v>2785473611.704504</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1910626816814724</v>
+        <v>0.1401933228285508</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03681402204329754</v>
+        <v>0.05683037905268267</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1625,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1379066911.886877</v>
+        <v>1433057828.822863</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09953974376640405</v>
+        <v>0.1150457318434871</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02692763802238847</v>
+        <v>0.02179965406292068</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1410,17 +1666,24 @@
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1014376797.083455</v>
+        <v>1294205723.486537</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08331220785667018</v>
+        <v>0.08811035929108735</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04414222723401532</v>
+        <v>0.03320731062380813</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1695,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2803977313.288863</v>
+        <v>3153947939.064764</v>
       </c>
       <c r="F36" t="n">
-        <v>0.157309951733718</v>
+        <v>0.164681706199988</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0178553352315607</v>
+        <v>0.02278172377701057</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1730,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2306466510.190169</v>
+        <v>1906130879.193393</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07448798453277525</v>
+        <v>0.08867629338060559</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03221370093134391</v>
+        <v>0.03113652578710325</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1765,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1376096330.567363</v>
+        <v>2005256621.021735</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08476137479339066</v>
+        <v>0.09406835378879437</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03916187644623902</v>
+        <v>0.03118615285466163</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1800,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1842625084.786617</v>
+        <v>1825338772.818645</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1253726435956984</v>
+        <v>0.1427765620255194</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03209541308332597</v>
+        <v>0.02926123575221008</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1835,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1689878628.795216</v>
+        <v>1750946180.239191</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1538866490066415</v>
+        <v>0.1209550573597705</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04066902823269135</v>
+        <v>0.04889928937360746</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1870,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2627010658.527085</v>
+        <v>2932688543.310124</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1368413358306076</v>
+        <v>0.1311761266148365</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0332725079154861</v>
+        <v>0.04636908157376671</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1905,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3219281506.665334</v>
+        <v>2851706067.540257</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1031839899786378</v>
+        <v>0.09943765191722112</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0450352778654096</v>
+        <v>0.04117729464458322</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>129</v>
+      </c>
+      <c r="J42" t="n">
+        <v>310</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1634,17 +1946,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2930605463.73637</v>
+        <v>2585268022.400659</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1654006416061155</v>
+        <v>0.1879122706491634</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01728075224625352</v>
+        <v>0.02222122848623887</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1975,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1887151556.76448</v>
+        <v>1984357261.332616</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09511559265728813</v>
+        <v>0.06596739108205212</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03386283341064985</v>
+        <v>0.02564544303734625</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2010,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1703145950.754841</v>
+        <v>1646864737.275944</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1298181516399012</v>
+        <v>0.1823488653613333</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05405917831573545</v>
+        <v>0.03836727768875374</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2045,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5474395895.196899</v>
+        <v>5152860857.240957</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1153520618299139</v>
+        <v>0.1136349247232692</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0534762107824193</v>
+        <v>0.05547889497039666</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>188</v>
+      </c>
+      <c r="J46" t="n">
+        <v>312</v>
+      </c>
+      <c r="K46" t="n">
+        <v>78.00539538344131</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2082,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4157807089.308432</v>
+        <v>3915730981.655116</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1606266929443531</v>
+        <v>0.1483756530685507</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05645467925731408</v>
+        <v>0.04121830303400827</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>139</v>
+      </c>
+      <c r="J47" t="n">
+        <v>313</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,22 +2117,31 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3157038180.536962</v>
+        <v>4109045178.729408</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07183387976063839</v>
+        <v>0.09837404100276083</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03711289126059542</v>
+        <v>0.03336237094779324</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>157</v>
+      </c>
+      <c r="J48" t="n">
+        <v>313</v>
+      </c>
+      <c r="K48" t="n">
+        <v>82.90795326723773</v>
       </c>
     </row>
     <row r="49">
@@ -1802,17 +2160,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1300076581.617336</v>
+        <v>1718350221.991225</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1592129694850727</v>
+        <v>0.1393359503262263</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03110074555606234</v>
+        <v>0.03599341780169496</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2195,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2812607416.58997</v>
+        <v>3441503721.565418</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1517564448724724</v>
+        <v>0.1780205818982302</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03344039498329245</v>
+        <v>0.03851514424506233</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>99</v>
+      </c>
+      <c r="J50" t="n">
+        <v>313</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2224,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1217706870.324545</v>
+        <v>1370766978.275447</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1305314804700266</v>
+        <v>0.1416745377581886</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03347862133489309</v>
+        <v>0.0511011672425084</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,22 +2259,31 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5248646377.434233</v>
+        <v>4331646244.610329</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1283125978397675</v>
+        <v>0.0845911343751074</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04308364564636892</v>
+        <v>0.05811509389022936</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
+      </c>
+      <c r="I52" t="n">
+        <v>191</v>
+      </c>
+      <c r="J52" t="n">
+        <v>312</v>
+      </c>
+      <c r="K52" t="n">
+        <v>74.89015015168819</v>
       </c>
     </row>
     <row r="53">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2585210005.988718</v>
+        <v>3703738323.096034</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1310002202692938</v>
+        <v>0.1644388345249523</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03236100778028096</v>
+        <v>0.02532165931228874</v>
       </c>
       <c r="H53" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>43</v>
+      </c>
+      <c r="J53" t="n">
+        <v>313</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4021295214.814912</v>
+        <v>4854300165.931852</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1486661531232451</v>
+        <v>0.1150212469472239</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03212303041723825</v>
+        <v>0.03577641282267135</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>164</v>
+      </c>
+      <c r="J54" t="n">
+        <v>313</v>
+      </c>
+      <c r="K54" t="n">
+        <v>80.13095893894348</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +2374,25 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3053836549.692558</v>
+        <v>3576724429.466002</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1412751720698522</v>
+        <v>0.1903639384030205</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03191768533134043</v>
+        <v>0.02343976314724236</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>145</v>
+      </c>
+      <c r="J55" t="n">
+        <v>312</v>
+      </c>
+      <c r="K55" t="n">
+        <v>60.47976815154635</v>
       </c>
     </row>
     <row r="56">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1278071964.815042</v>
+        <v>1312457146.480077</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1148832197929874</v>
+        <v>0.1334905377715362</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03856346498157839</v>
+        <v>0.05321282045415553</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,16 +2446,25 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3603781799.252323</v>
+        <v>3036195306.889339</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1328890617566884</v>
+        <v>0.1833057237504074</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01898354186703336</v>
+        <v>0.01986038048804685</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>129</v>
+      </c>
+      <c r="J57" t="n">
+        <v>312</v>
+      </c>
+      <c r="K57" t="n">
+        <v>43.12698378896602</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1193460132.730078</v>
+        <v>1868810575.854969</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1946284351301987</v>
+        <v>0.1287208424556065</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02771703264299866</v>
+        <v>0.02697615785094683</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,23 +2512,30 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4834401993.798567</v>
+        <v>5338565799.171317</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1286000048804913</v>
+        <v>0.1139988380404702</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04290136187482578</v>
+        <v>0.04683261413717066</v>
       </c>
       <c r="H59" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I59" t="n">
+        <v>151</v>
+      </c>
+      <c r="J59" t="n">
+        <v>313</v>
+      </c>
+      <c r="K59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2104,23 +2547,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2496715255.389549</v>
+        <v>2831573847.616235</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1998661767870356</v>
+        <v>0.1663031069477324</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02896394300467383</v>
+        <v>0.02475397784551314</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>54</v>
+      </c>
+      <c r="J60" t="n">
+        <v>310</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2138,17 +2588,24 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2639553175.098188</v>
+        <v>3362413931.086782</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1738031571973894</v>
+        <v>0.1124236070920962</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02456257223451704</v>
+        <v>0.02150165497250583</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>313</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2623,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1650830933.578651</v>
+        <v>1468299200.361303</v>
       </c>
       <c r="F62" t="n">
-        <v>0.140892387020548</v>
+        <v>0.1325555261086867</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03657135405562316</v>
+        <v>0.03936601520366952</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2652,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5491877039.797166</v>
+        <v>3451122937.763593</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1028482938445511</v>
+        <v>0.08486974371836077</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0442722427989064</v>
+        <v>0.04461285233115225</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>152</v>
+      </c>
+      <c r="J63" t="n">
+        <v>313</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2216,22 +2687,31 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4741752681.650131</v>
+        <v>3860938140.465423</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1851464075419948</v>
+        <v>0.1653468947980191</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02429454752977892</v>
+        <v>0.02747160827041679</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>154</v>
+      </c>
+      <c r="J64" t="n">
+        <v>312</v>
+      </c>
+      <c r="K64" t="n">
+        <v>67.78803390069663</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2724,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5328148041.584229</v>
+        <v>4381333187.33807</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1369350157493891</v>
+        <v>0.150605226845859</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02502510233003184</v>
+        <v>0.02039537381118012</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>247</v>
+      </c>
+      <c r="J65" t="n">
+        <v>313</v>
+      </c>
+      <c r="K65" t="n">
+        <v>78.29348773367747</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2761,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>3880859265.701026</v>
+        <v>5491963393.441235</v>
       </c>
       <c r="F66" t="n">
-        <v>0.12243183054192</v>
+        <v>0.1465692261394433</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04058546632538548</v>
+        <v>0.04898106585669574</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>154</v>
+      </c>
+      <c r="J66" t="n">
+        <v>313</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,22 +2796,31 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2375758757.093588</v>
+        <v>2833674777.259667</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0879198973433982</v>
+        <v>0.07836795704410435</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03833320496104922</v>
+        <v>0.03301043455183195</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>312</v>
+      </c>
+      <c r="K67" t="n">
+        <v>45.39459681925624</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2833,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4366850013.506774</v>
+        <v>5468736815.476004</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1164411800485082</v>
+        <v>0.1079999857123892</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0354136397883227</v>
+        <v>0.03207323724124599</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>168</v>
+      </c>
+      <c r="J68" t="n">
+        <v>313</v>
+      </c>
+      <c r="K68" t="n">
+        <v>78.68874053724119</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2870,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1948376407.118803</v>
+        <v>1920467710.789361</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1302385094084348</v>
+        <v>0.1448037837187386</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04703061177238957</v>
+        <v>0.03916686626867429</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2905,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2838668542.657191</v>
+        <v>3712700312.12715</v>
       </c>
       <c r="F70" t="n">
-        <v>0.067397774085585</v>
+        <v>0.07306447417003895</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04028069298639509</v>
+        <v>0.04800579973004442</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>46</v>
+      </c>
+      <c r="J70" t="n">
+        <v>313</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2418,16 +2946,25 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5464020081.658946</v>
+        <v>4538786829.863626</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1413800467824479</v>
+        <v>0.1396797125792558</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03287039532187461</v>
+        <v>0.02756301860234464</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>232</v>
+      </c>
+      <c r="J71" t="n">
+        <v>313</v>
+      </c>
+      <c r="K71" t="n">
+        <v>79.42503171881216</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2977,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1454667523.946815</v>
+        <v>1418691038.464129</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0790443698849478</v>
+        <v>0.1039446427192219</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03852464313819362</v>
+        <v>0.03908234338856008</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,17 +3018,24 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2340960807.347282</v>
+        <v>2947014131.044802</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09875349852262527</v>
+        <v>0.08333744727912293</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0484596440197738</v>
+        <v>0.03862037155973085</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>24</v>
+      </c>
+      <c r="J73" t="n">
+        <v>311</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3047,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2946194420.771398</v>
+        <v>3314213937.402251</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1432111846713165</v>
+        <v>0.1820607344502085</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02958091208634826</v>
+        <v>0.02315377242160868</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>82</v>
+      </c>
+      <c r="J74" t="n">
+        <v>311</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3088,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1681102323.554225</v>
+        <v>1923816431.816846</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1058210805483624</v>
+        <v>0.1544688061466828</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02700517825444775</v>
+        <v>0.02594291422311104</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,23 +3117,30 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5068462842.95136</v>
+        <v>3976300016.165731</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1236087327041652</v>
+        <v>0.08790325471692467</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02547116526697216</v>
+        <v>0.02127470088118376</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>147</v>
+      </c>
+      <c r="J76" t="n">
+        <v>313</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2259179735.132079</v>
+        <v>1584604835.80328</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1386510124318702</v>
+        <v>0.1544654898424444</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01979329431401401</v>
+        <v>0.02527665642324287</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2614,17 +3193,24 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>2988592175.938211</v>
+        <v>2975064558.240645</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1212648414239149</v>
+        <v>0.090707235362691</v>
       </c>
       <c r="G78" t="n">
-        <v>0.036499374729627</v>
+        <v>0.04323400564475919</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>155</v>
+      </c>
+      <c r="J78" t="n">
+        <v>311</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1193134564.126915</v>
+        <v>1378596844.22481</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1636839247441988</v>
+        <v>0.1470300095629825</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03511656151277661</v>
+        <v>0.02954427420161244</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4447802619.633899</v>
+        <v>4621167042.996789</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08554789028001103</v>
+        <v>0.09815921488605844</v>
       </c>
       <c r="G80" t="n">
-        <v>0.0365753490026887</v>
+        <v>0.0361489718371593</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>153</v>
+      </c>
+      <c r="J80" t="n">
+        <v>312</v>
+      </c>
+      <c r="K80" t="n">
+        <v>57.61340528522275</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3984412352.821329</v>
+        <v>4431885225.269439</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1335793588174515</v>
+        <v>0.1236985216137877</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02551765962097028</v>
+        <v>0.03042735240430403</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>144</v>
+      </c>
+      <c r="J81" t="n">
+        <v>313</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,22 +3329,31 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3852351772.226072</v>
+        <v>5239209898.403212</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2146500826370974</v>
+        <v>0.1485882691700957</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02555843418761889</v>
+        <v>0.02032602974257854</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>227</v>
+      </c>
+      <c r="J82" t="n">
+        <v>312</v>
+      </c>
+      <c r="K82" t="n">
+        <v>76.90279948830674</v>
       </c>
     </row>
     <row r="83">
@@ -2748,23 +3366,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1873483967.799341</v>
+        <v>1729089866.56129</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1211050373928678</v>
+        <v>0.1167938625125107</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02813752410121179</v>
+        <v>0.04109212554397754</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3401,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1963069723.424216</v>
+        <v>2341839661.495776</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1044186101908787</v>
+        <v>0.09132999843143767</v>
       </c>
       <c r="G84" t="n">
-        <v>0.0504826442928455</v>
+        <v>0.0390371373949089</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3436,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2569742099.296776</v>
+        <v>3203963413.533602</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1528054265724209</v>
+        <v>0.1414007462357824</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03569268878042425</v>
+        <v>0.05558466017478179</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>41</v>
+      </c>
+      <c r="J85" t="n">
+        <v>311</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2432292105.397089</v>
+        <v>2317465618.173921</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1426384546867516</v>
+        <v>0.167460534050418</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02236474645861682</v>
+        <v>0.01669341656549053</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2866,17 +3512,24 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>997088758.4220177</v>
+        <v>1457351543.377939</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1865621815792858</v>
+        <v>0.1886124470642234</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03547021735392922</v>
+        <v>0.03526071646679264</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2542835149.096069</v>
+        <v>2957082471.992448</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1682007877979806</v>
+        <v>0.1476457759918704</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02773130880371433</v>
+        <v>0.03584272534218064</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>43</v>
+      </c>
+      <c r="J88" t="n">
+        <v>300</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3582,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3174086135.651456</v>
+        <v>3376449289.547941</v>
       </c>
       <c r="F89" t="n">
-        <v>0.0977873736679489</v>
+        <v>0.13060584854542</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03262404977236748</v>
+        <v>0.02599097710136228</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>22</v>
+      </c>
+      <c r="J89" t="n">
+        <v>313</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1355663990.764162</v>
+        <v>1903182670.833737</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1334123958415091</v>
+        <v>0.119495704658122</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05075977486738937</v>
+        <v>0.05535271034874915</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2978,17 +3652,24 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1295867941.238389</v>
+        <v>1725629516.611514</v>
       </c>
       <c r="F91" t="n">
-        <v>0.122783427398795</v>
+        <v>0.157184571441157</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05113442446695986</v>
+        <v>0.04280181141561407</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2115851350.716469</v>
+        <v>1905995948.314784</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07044006383749887</v>
+        <v>0.07857422758074806</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04031941022914659</v>
+        <v>0.03676529745878293</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3716,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4813345188.444317</v>
+        <v>4906248186.478504</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1000406129234277</v>
+        <v>0.1180570931272549</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05224520539759522</v>
+        <v>0.0462857343795395</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>140</v>
+      </c>
+      <c r="J93" t="n">
+        <v>312</v>
+      </c>
+      <c r="K93" t="n">
+        <v>77.10743865167554</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2228202940.20717</v>
+        <v>2454070294.968122</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1123347554212459</v>
+        <v>0.1632874049114038</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04029212040221874</v>
+        <v>0.04277059744272031</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2635255028.169163</v>
+        <v>2587648562.662821</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1380447176758377</v>
+        <v>0.09044209798869417</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03268913223654334</v>
+        <v>0.03227959214687821</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2367682059.854461</v>
+        <v>2073365367.303365</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1308914267923373</v>
+        <v>0.0852927891654152</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03971168029125407</v>
+        <v>0.03043976429185734</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,17 +3864,24 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3650810705.873648</v>
+        <v>3420620655.030112</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1403232452555836</v>
+        <v>0.1277366502177531</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02904790413292675</v>
+        <v>0.02242656473285149</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
       </c>
+      <c r="I97" t="n">
+        <v>158</v>
+      </c>
+      <c r="J97" t="n">
+        <v>313</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3174,16 +3899,25 @@
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3187572315.091984</v>
+        <v>3179925270.852691</v>
       </c>
       <c r="F98" t="n">
-        <v>0.126132268444522</v>
+        <v>0.1029541651569811</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03147190755953895</v>
+        <v>0.02578795496392416</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>77</v>
+      </c>
+      <c r="J98" t="n">
+        <v>312</v>
+      </c>
+      <c r="K98" t="n">
+        <v>48.3950389214672</v>
       </c>
     </row>
     <row r="99">
@@ -3196,23 +3930,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2176781886.177001</v>
+        <v>2396427314.856416</v>
       </c>
       <c r="F99" t="n">
-        <v>0.102918414822919</v>
+        <v>0.1449568556917841</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02149884109341026</v>
+        <v>0.02515885179259408</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,17 +3971,24 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4737227207.533211</v>
+        <v>4234664250.899733</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1654352430939566</v>
+        <v>0.1715445888536222</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02629130011987351</v>
+        <v>0.0246767575219364</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>136</v>
+      </c>
+      <c r="J100" t="n">
+        <v>313</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2391647118.149152</v>
+        <v>2851557855.12321</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1766353655333268</v>
+        <v>0.1589416297683408</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04290741138505669</v>
+        <v>0.048508478002784</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>29</v>
+      </c>
+      <c r="J101" t="n">
+        <v>310</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
